--- a/Options.xlsx
+++ b/Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B61F73C-5DA0-4806-A826-32C03F06067B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6301B51-3462-497C-8F99-218AC8565DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -98,13 +98,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -442,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886A0D47-D62E-47F1-A9A2-4008043EEBBB}">
   <dimension ref="B2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,11 +483,11 @@
         <v>5</v>
       </c>
       <c r="M3">
-        <f>$I$3*L3</f>
+        <f t="shared" ref="M3:M8" si="0">$I$3*L3</f>
         <v>123152.70935960591</v>
       </c>
       <c r="N3" s="3">
-        <f>$J$2-M3</f>
+        <f t="shared" ref="N3:N8" si="1">$J$2-M3</f>
         <v>26847.290640394087</v>
       </c>
     </row>
@@ -505,11 +506,11 @@
         <v>4</v>
       </c>
       <c r="M4">
-        <f>$I$3*L4</f>
+        <f t="shared" si="0"/>
         <v>98522.167487684725</v>
       </c>
       <c r="N4" s="3">
-        <f>$J$2-M4</f>
+        <f t="shared" si="1"/>
         <v>51477.832512315275</v>
       </c>
     </row>
@@ -523,7 +524,7 @@
       <c r="D5">
         <v>0.25</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>5000</v>
       </c>
       <c r="J5" s="4">
@@ -534,11 +535,11 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <f>$I$3*L5</f>
+        <f t="shared" si="0"/>
         <v>73891.625615763536</v>
       </c>
       <c r="N5" s="3">
-        <f>$J$2-M5</f>
+        <f t="shared" si="1"/>
         <v>76108.374384236464</v>
       </c>
     </row>
@@ -547,26 +548,26 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <f>B6-$C$5+$D$5</f>
+        <f t="shared" ref="C6:C11" si="2">B6-$C$5+$D$5</f>
         <v>-0.75</v>
       </c>
       <c r="D6" s="5">
-        <f>-C6*100*($E$5/$D$5/100)</f>
-        <v>15000</v>
-      </c>
-      <c r="E6">
-        <f>D6/$E$5</f>
-        <v>3</v>
+        <f t="shared" ref="D6:D11" si="3">-C6*100*($E$5/$D$5/100)-$E$5</f>
+        <v>10000</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" ref="E6:E11" si="4">D6/$E$5</f>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>2</v>
       </c>
       <c r="M6">
-        <f>$I$3*L6</f>
+        <f t="shared" si="0"/>
         <v>49261.083743842362</v>
       </c>
       <c r="N6" s="3">
-        <f>$J$2-M6</f>
+        <f t="shared" si="1"/>
         <v>100738.91625615764</v>
       </c>
     </row>
@@ -575,26 +576,26 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <f>B7-$C$5+$D$5</f>
+        <f t="shared" si="2"/>
         <v>-1.75</v>
       </c>
       <c r="D7" s="5">
-        <f>-C7*100*($E$5/$D$5/100)</f>
-        <v>35000</v>
-      </c>
-      <c r="E7">
-        <f>D7/$E$5</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <f>$I$3*L7</f>
+        <f t="shared" si="0"/>
         <v>24630.541871921181</v>
       </c>
       <c r="N7" s="3">
-        <f>$J$2-M7</f>
+        <f t="shared" si="1"/>
         <v>125369.45812807881</v>
       </c>
     </row>
@@ -603,26 +604,26 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>B8-$C$5+$D$5</f>
+        <f t="shared" si="2"/>
         <v>-2.75</v>
       </c>
       <c r="D8" s="5">
-        <f>-C8*100*($E$5/$D$5/100)</f>
-        <v>55000</v>
-      </c>
-      <c r="E8">
-        <f>D8/$E$5</f>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <f>$I$3*L8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <f>$J$2-M8</f>
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
     </row>
@@ -631,16 +632,16 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <f>B9-$C$5+$D$5</f>
+        <f t="shared" si="2"/>
         <v>-3.75</v>
       </c>
       <c r="D9" s="5">
-        <f>-C9*100*($E$5/$D$5/100)</f>
-        <v>75000</v>
-      </c>
-      <c r="E9">
-        <f>D9/$E$5</f>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>70000</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -648,16 +649,16 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <f>B10-$C$5+$D$5</f>
+        <f t="shared" si="2"/>
         <v>-4.75</v>
       </c>
       <c r="D10" s="5">
-        <f>-C10*100*($E$5/$D$5/100)</f>
-        <v>95000</v>
-      </c>
-      <c r="E10">
-        <f>D10/$E$5</f>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -665,16 +666,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <f>B11-$C$5+$D$5</f>
+        <f t="shared" si="2"/>
         <v>-5.75</v>
       </c>
       <c r="D11" s="5">
-        <f>-C11*100*($E$5/$D$5/100)</f>
-        <v>115000</v>
-      </c>
-      <c r="E11">
-        <f>D11/$E$5</f>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>110000</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -693,14 +694,14 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>0.15</v>
-      </c>
-      <c r="E15" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="E15" s="5">
         <v>5000</v>
       </c>
       <c r="G15" s="5">
-        <f>E15/D15</f>
-        <v>33333.333333333336</v>
+        <f>E15/D15/100</f>
+        <v>277.77777777777777</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -709,69 +710,69 @@
       </c>
       <c r="C16">
         <f>B16-$C$15+$D$15</f>
-        <v>-0.85</v>
+        <v>-0.82000000000000006</v>
       </c>
       <c r="D16" s="5">
-        <f>-C16*100*($E$15/$D$15/100)</f>
-        <v>28333.333333333336</v>
-      </c>
-      <c r="E16" s="5">
+        <f>-C16*100*($E$15/$D$5/100)-$E$15</f>
+        <v>11400</v>
+      </c>
+      <c r="E16" s="6">
         <f>D16/$E$15</f>
-        <v>5.666666666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
         <f>B17-$C$15+$D$15</f>
-        <v>-1.85</v>
+        <v>-1.82</v>
       </c>
       <c r="D17" s="5">
-        <f>-C17*100*($E$15/$D$15/100)</f>
-        <v>61666.666666666672</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" ref="E17:E19" si="0">D17/$E$15</f>
-        <v>12.333333333333334</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <f>-C17*100*($E$15/$D$5/100)-$E$15</f>
+        <v>31400</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" ref="E17:E19" si="5">D17/$E$15</f>
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
         <f>B18-$C$15+$D$15</f>
-        <v>-2.85</v>
+        <v>-2.82</v>
       </c>
       <c r="D18" s="5">
-        <f>-C18*100*($E$15/$D$15/100)</f>
-        <v>95000.000000000015</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="0"/>
-        <v>19.000000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <f>-C18*100*($E$15/$D$5/100)-$E$15</f>
+        <v>51400</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="5"/>
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
         <f>B19-$C$15+$D$15</f>
-        <v>-3.85</v>
+        <v>-3.82</v>
       </c>
       <c r="D19" s="5">
-        <f>-C19*100*($E$15/$D$15/100)</f>
-        <v>128333.33333333334</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="0"/>
-        <v>25.666666666666668</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <f>-C19*100*($E$15/$D$5/100)-$E$15</f>
+        <v>71400</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="5"/>
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>1</v>
       </c>
@@ -779,103 +780,107 @@
         <v>45674</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>0.8</v>
-      </c>
-      <c r="E22" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E22" s="5">
         <v>5000</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="5">
+        <f>E22/D22/100</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
         <f>B23-$C$22+$D$22</f>
-        <v>-1.2</v>
+        <v>-0.6</v>
       </c>
       <c r="D23" s="5">
-        <f>-C23*100*($E$22/$D$22/100)</f>
-        <v>7500</v>
-      </c>
-      <c r="E23" s="5">
+        <f>-C23*100*($E$22/$D$5/100)-$E$22</f>
+        <v>7000</v>
+      </c>
+      <c r="E23" s="6">
         <f>D23/$E$22</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24">
         <f>B24-$C$22+$D$22</f>
-        <v>-2.2000000000000002</v>
+        <v>-1.6</v>
       </c>
       <c r="D24" s="5">
-        <f>-C24*100*($E$22/$D$22/100)</f>
-        <v>13750.000000000002</v>
-      </c>
-      <c r="E24" s="5">
+        <f>-C24*100*($E$22/$D$5/100)-$E$22</f>
+        <v>27000</v>
+      </c>
+      <c r="E24" s="6">
         <f>D24/$E$22</f>
-        <v>2.7500000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25">
         <f>B25-$C$22+$D$22</f>
-        <v>-3.2</v>
+        <v>-2.6</v>
       </c>
       <c r="D25" s="5">
-        <f>-C25*100*($E$22/$D$22/100)</f>
-        <v>20000</v>
-      </c>
-      <c r="E25" s="5">
+        <f>-C25*100*($E$22/$D$5/100)-$E$22</f>
+        <v>47000</v>
+      </c>
+      <c r="E25" s="6">
         <f>D25/$E$22</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
         <f>B26-$C$22+$D$22</f>
-        <v>-4.2</v>
+        <v>-3.6</v>
       </c>
       <c r="D26" s="5">
-        <f>-C26*100*($E$22/$D$22/100)</f>
-        <v>26250</v>
-      </c>
-      <c r="E26" s="5">
+        <f>-C26*100*($E$22/$D$5/100)-$E$22</f>
+        <v>67000</v>
+      </c>
+      <c r="E26" s="6">
         <f>D26/$E$22</f>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
         <f>B27-$C$22+$D$22</f>
-        <v>-5.2</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="D27" s="5">
-        <f>-C27*100*($E$22/$D$22/100)</f>
-        <v>32500</v>
-      </c>
-      <c r="E27" s="5">
+        <f>-C27*100*($E$22/$D$5/100)-$E$22</f>
+        <v>86999.999999999985</v>
+      </c>
+      <c r="E27" s="6">
         <f>D27/$E$22</f>
-        <v>6.5</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Options.xlsx
+++ b/Options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6301B51-3462-497C-8F99-218AC8565DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99E087-8794-4AF1-A872-827D1CDCD1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
+    <workbookView xWindow="-28920" yWindow="-1035" windowWidth="29040" windowHeight="15720" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t>Puts</t>
   </si>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886A0D47-D62E-47F1-A9A2-4008043EEBBB}">
-  <dimension ref="B2:N27"/>
+  <dimension ref="B2:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +721,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2</v>
       </c>
@@ -738,7 +738,7 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
@@ -755,7 +755,7 @@
         <v>10.28</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
@@ -772,7 +772,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>1</v>
       </c>
@@ -780,7 +780,7 @@
         <v>45674</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -798,7 +798,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4</v>
       </c>
@@ -815,7 +815,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>3</v>
       </c>
@@ -832,7 +832,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2</v>
       </c>
@@ -849,7 +849,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
@@ -866,7 +866,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0</v>
       </c>
@@ -880,6 +880,432 @@
       </c>
       <c r="E27" s="6">
         <f>D27/$E$22</f>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="2">
+        <v>500000</v>
+      </c>
+      <c r="L32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>183.34</v>
+      </c>
+      <c r="I33" s="5">
+        <f>J32/H33</f>
+        <v>2727.1735573251881</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33:M38" si="6">$I$3*L33</f>
+        <v>123152.70935960591</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" ref="N33:N38" si="7">$J$2-M33</f>
+        <v>26847.290640394087</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45583</v>
+      </c>
+      <c r="I34" s="5">
+        <f>I33/100</f>
+        <v>27.271735573251881</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>98522.167487684725</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="7"/>
+        <v>51477.832512315275</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>0.25</v>
+      </c>
+      <c r="E35" s="5">
+        <v>5000</v>
+      </c>
+      <c r="J35" s="4">
+        <f>I34*D35*100</f>
+        <v>681.79338933129702</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>73891.625615763536</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="7"/>
+        <v>76108.374384236464</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C41" si="8">B36-$C$5+$D$5</f>
+        <v>-0.75</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" ref="D36:D41" si="9">-C36*100*($E$5/$D$5/100)-$E$5</f>
+        <v>10000</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" ref="E36:E41" si="10">D36/$E$5</f>
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>49261.083743842362</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="7"/>
+        <v>100738.91625615764</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="8"/>
+        <v>-1.75</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="9"/>
+        <v>30000</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>24630.541871921181</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="7"/>
+        <v>125369.45812807881</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="8"/>
+        <v>-2.75</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="9"/>
+        <v>50000</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="7"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="8"/>
+        <v>-3.75</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="9"/>
+        <v>70000</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="8"/>
+        <v>-4.75</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="9"/>
+        <v>90000</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="8"/>
+        <v>-5.75</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="9"/>
+        <v>110000</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>0.18</v>
+      </c>
+      <c r="E45" s="5">
+        <v>5000</v>
+      </c>
+      <c r="G45" s="5">
+        <f>E45/D45/100</f>
+        <v>277.77777777777777</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <f>B46-$C$15+$D$15</f>
+        <v>-0.82000000000000006</v>
+      </c>
+      <c r="D46" s="5">
+        <f>-C46*100*($E$15/$D$5/100)-$E$15</f>
+        <v>11400</v>
+      </c>
+      <c r="E46" s="6">
+        <f>D46/$E$15</f>
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <f>B47-$C$15+$D$15</f>
+        <v>-1.82</v>
+      </c>
+      <c r="D47" s="5">
+        <f>-C47*100*($E$15/$D$5/100)-$E$15</f>
+        <v>31400</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" ref="E47:E49" si="11">D47/$E$15</f>
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <f>B48-$C$15+$D$15</f>
+        <v>-2.82</v>
+      </c>
+      <c r="D48" s="5">
+        <f>-C48*100*($E$15/$D$5/100)-$E$15</f>
+        <v>51400</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="11"/>
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>B49-$C$15+$D$15</f>
+        <v>-3.82</v>
+      </c>
+      <c r="D49" s="5">
+        <f>-C49*100*($E$15/$D$5/100)-$E$15</f>
+        <v>71400</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="11"/>
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>0.4</v>
+      </c>
+      <c r="E52" s="5">
+        <v>5000</v>
+      </c>
+      <c r="G52" s="5">
+        <f>E52/D52/100</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <f>B53-$C$22+$D$22</f>
+        <v>-0.6</v>
+      </c>
+      <c r="D53" s="5">
+        <f>-C53*100*($E$22/$D$5/100)-$E$22</f>
+        <v>7000</v>
+      </c>
+      <c r="E53" s="6">
+        <f>D53/$E$22</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <f>B54-$C$22+$D$22</f>
+        <v>-1.6</v>
+      </c>
+      <c r="D54" s="5">
+        <f>-C54*100*($E$22/$D$5/100)-$E$22</f>
+        <v>27000</v>
+      </c>
+      <c r="E54" s="6">
+        <f>D54/$E$22</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <f>B55-$C$22+$D$22</f>
+        <v>-2.6</v>
+      </c>
+      <c r="D55" s="5">
+        <f>-C55*100*($E$22/$D$5/100)-$E$22</f>
+        <v>47000</v>
+      </c>
+      <c r="E55" s="6">
+        <f>D55/$E$22</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <f>B56-$C$22+$D$22</f>
+        <v>-3.6</v>
+      </c>
+      <c r="D56" s="5">
+        <f>-C56*100*($E$22/$D$5/100)-$E$22</f>
+        <v>67000</v>
+      </c>
+      <c r="E56" s="6">
+        <f>D56/$E$22</f>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>B57-$C$22+$D$22</f>
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="D57" s="5">
+        <f>-C57*100*($E$22/$D$5/100)-$E$22</f>
+        <v>86999.999999999985</v>
+      </c>
+      <c r="E57" s="6">
+        <f>D57/$E$22</f>
         <v>17.399999999999999</v>
       </c>
     </row>

--- a/Options.xlsx
+++ b/Options.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99E087-8794-4AF1-A872-827D1CDCD1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5BD773-9E31-415B-878E-F96B529F22CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1035" windowWidth="29040" windowHeight="15720" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="688" firstSheet="4" activeTab="6" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1 Long Call" sheetId="2" r:id="rId2"/>
+    <sheet name="2 Long Put" sheetId="3" r:id="rId3"/>
+    <sheet name="3 Short Put (naked)" sheetId="4" r:id="rId4"/>
+    <sheet name="4 Covered Call" sheetId="5" r:id="rId5"/>
+    <sheet name="5 Covered Call Collar" sheetId="6" r:id="rId6"/>
+    <sheet name="6 Bull Call Spread" sheetId="7" r:id="rId7"/>
+    <sheet name="7 Bear Put Spread" sheetId="9" r:id="rId8"/>
+    <sheet name="8 Short Bull Ratio Spread" sheetId="10" r:id="rId9"/>
+    <sheet name="9 Short Bear Ratio Spread" sheetId="11" r:id="rId10"/>
+    <sheet name="10 Bull Call Ladder Spread" sheetId="12" r:id="rId11"/>
+    <sheet name="11 Bear Put Ladder Spread" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="72">
   <si>
     <t>Puts</t>
   </si>
@@ -51,6 +62,208 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>Long Call</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Break Even</t>
+  </si>
+  <si>
+    <t>Max Loss</t>
+  </si>
+  <si>
+    <t>Directional Bet</t>
+  </si>
+  <si>
+    <t>Bullish Strategy</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>One Transaction</t>
+  </si>
+  <si>
+    <t>Net Debit (Upfront Cost)</t>
+  </si>
+  <si>
+    <t>Max Risk (Limited)</t>
+  </si>
+  <si>
+    <t>Max Gain (Unlimited)</t>
+  </si>
+  <si>
+    <t>Break Even point is when Price of Underlying Security = (Strike Price + Price of Option)</t>
+  </si>
+  <si>
+    <t>Profit is made when Price of Underlying Security &gt; (Strike Price + Price of Option)</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Risk Calculations (Maximum Downside)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum loss is limited to the Premium paid / Net Debit </t>
+  </si>
+  <si>
+    <t>Maximum loss is made when Price of Underlying Security &lt; or = Strike Price</t>
+  </si>
+  <si>
+    <t>Profit Calculations (Maximum Upside)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>No. Co</t>
+  </si>
+  <si>
+    <t>Shares Exposure</t>
+  </si>
+  <si>
+    <t>Dollar Exposure</t>
+  </si>
+  <si>
+    <t>Premium Paid</t>
+  </si>
+  <si>
+    <t>Unlimited</t>
+  </si>
+  <si>
+    <t>Target 1</t>
+  </si>
+  <si>
+    <t>Target 2</t>
+  </si>
+  <si>
+    <t>Target 3</t>
+  </si>
+  <si>
+    <t>Risk-Reward</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Long Put</t>
+  </si>
+  <si>
+    <t>Bearish Strategy</t>
+  </si>
+  <si>
+    <t>Max Gain (Limited)</t>
+  </si>
+  <si>
+    <t>Break Even point is when Price of Underlying Security = (Strike Price - Price of Option)</t>
+  </si>
+  <si>
+    <t>Profit is made when Price of Underlying Security &lt; (Strike Price - Price of Option)</t>
+  </si>
+  <si>
+    <t>Profit per option owned is (Strike Price – Price of Underlying Security) – Price of Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Profit per option owned is Price of Underlying Security – (Strike Price + Price of Option)</t>
+  </si>
+  <si>
+    <t>Maximum loss is made when Price of Underlying Security &gt; or = Strike Price</t>
+  </si>
+  <si>
+    <t>Max Profit (0)</t>
+  </si>
+  <si>
+    <t>Max Profit (∞)</t>
+  </si>
+  <si>
+    <t>Net Credit (Upfront Payment Received)</t>
+  </si>
+  <si>
+    <t>Short Put</t>
+  </si>
+  <si>
+    <t>Break-even point is when Price of Underlying Security = (Strike Price - Price of Option)</t>
+  </si>
+  <si>
+    <t>Profit is limited, per option written, to “Price of Option”</t>
+  </si>
+  <si>
+    <t>Maximum profit is limited and made when “Price of Underlying Security &gt; or = Strike Price</t>
+  </si>
+  <si>
+    <t>Maximum loss is limited only by how much the underlying security can fall.</t>
+  </si>
+  <si>
+    <t>Loss is incurred when Price of Underlying Security &lt; (Strike Price – Price Per Option)</t>
+  </si>
+  <si>
+    <t>Loss per option written is Strike Price – (Price of Underlying Security + Price Per Option)</t>
+  </si>
+  <si>
+    <t>Credit Reveived</t>
+  </si>
+  <si>
+    <t>Target 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Bull Call Spread</t>
+  </si>
+  <si>
+    <t>Two  Transactions</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Credit Received</t>
+  </si>
+  <si>
+    <t>Leg B (Short OTM Call)</t>
+  </si>
+  <si>
+    <t>Net Debit</t>
+  </si>
+  <si>
+    <t>Long Call ATM/OTM, Writing a higher Call OTM, Same Time of Expiration</t>
+  </si>
+  <si>
+    <t>Leg A (Long ATM/OTM Call)</t>
+  </si>
+  <si>
+    <t>Leg A = Buy ATM or OTM Call Option, Leg B = Write Higher Strike Call Option</t>
+  </si>
+  <si>
+    <t>Maximum profit is limited</t>
+  </si>
+  <si>
+    <t>Maximum profit is made when Price of Underlying Security &gt; or = Strike Price Leg B</t>
+  </si>
+  <si>
+    <t>Maximum profit per option owned is (Strike Price Leg B – Strike Price Leg A) – (Price of Option Leg A – Price of Option Leg B)</t>
+  </si>
+  <si>
+    <t>Maximum loss is limited</t>
+  </si>
+  <si>
+    <t>Maximum loss is made when Price of Underlying Security &lt; or = Strike Price Leg A</t>
+  </si>
+  <si>
+    <t>Maximum loss per option owned is Price of Option Leg A – Price of Option Leg B</t>
+  </si>
+  <si>
+    <t>Target 3 (max profit)</t>
+  </si>
+  <si>
+    <t>Target 1 (max loss)</t>
   </si>
 </sst>
 </file>
@@ -61,7 +274,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +285,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -106,6 +333,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -443,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886A0D47-D62E-47F1-A9A2-4008043EEBBB}">
   <dimension ref="B2:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,4 +1543,1458 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4E2EB9-9438-4B4F-B38D-19A525B09D23}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966A165-7134-412F-A6D9-3E4951015599}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C746FF5-E63B-4D48-99EC-A532EB506C9F}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF937D98-6EB0-49CA-9D3F-A41534BC4016}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:N44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45583</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="I7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="I8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="I10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <f>C9*C10*100</f>
+        <v>200</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="I11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f>C10*100</f>
+        <v>100</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="I12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <f>C12*C8</f>
+        <v>5000</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="I16" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6">
+        <f>C8+C9</f>
+        <v>52</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="I17" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <f>C11</f>
+        <v>200</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="I18" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="I19" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="6"/>
+      <c r="I20" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="6"/>
+      <c r="I21" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23" s="5">
+        <f>(C23-$C$8-$C$9)*$C$10*100</f>
+        <v>300</v>
+      </c>
+      <c r="E23" s="4">
+        <f>D23/$C$11</f>
+        <v>1.5</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24" s="5">
+        <f>(C24-$C$8-$C$9)*$C$10*100</f>
+        <v>800</v>
+      </c>
+      <c r="E24" s="4">
+        <f>D24/$C$11</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>70</v>
+      </c>
+      <c r="D25" s="5">
+        <f>(C25-$C$8-$C$9)*$C$10*100</f>
+        <v>1800</v>
+      </c>
+      <c r="E25" s="4">
+        <f>D25/$C$11</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618DC5F4-515D-4AAB-8B65-23F84AADA9D5}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B3:N29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45583</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="I8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="I9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="I11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <f>C10*C11*100</f>
+        <v>200</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="I12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <f>-C11*100</f>
+        <v>-100</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="I13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <f>C13*C9</f>
+        <v>-5000</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="6">
+        <f>C9-C10</f>
+        <v>48</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f>C12</f>
+        <v>200</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <f>-(C18*C13)</f>
+        <v>4800</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="6"/>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="6"/>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>48</v>
+      </c>
+      <c r="D24" s="5">
+        <f>(($C$9-C24)-$C$10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <f>D24/$C$12</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+      <c r="D25" s="5">
+        <f>(($C$9-C25)-$C$10)*100</f>
+        <v>300</v>
+      </c>
+      <c r="E25" s="4">
+        <f>D25/$C$12</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26" s="5">
+        <f>(($C$9-C26)-$C$10)*100</f>
+        <v>1300</v>
+      </c>
+      <c r="E26" s="4">
+        <f>D26/$C$12</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2637252-19CF-47DC-8BBD-EA6C72C2BE23}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B3:M27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45583</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="I8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="I9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="I11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <f>C10*C11*100</f>
+        <v>200</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="I12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="I13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <f>C13*C9</f>
+        <v>5000</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="I14" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="6">
+        <f>C9-C10</f>
+        <v>48</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f>-(C18*C13)</f>
+        <v>-4800</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <f>C12</f>
+        <v>200</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="6"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="6"/>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>48</v>
+      </c>
+      <c r="D24" s="5">
+        <f>(($C$9-C24)-$C$10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <f>D24/$C$12</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+      <c r="D25" s="5">
+        <f>-(($C$9-C25)-$C$10)*100</f>
+        <v>-300</v>
+      </c>
+      <c r="E25" s="4">
+        <f>D25/$C$12</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>55</v>
+      </c>
+      <c r="D26" s="5">
+        <f>C12</f>
+        <v>200</v>
+      </c>
+      <c r="E26" s="4">
+        <f>D26/$C$12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8103BB4-CE91-4BAC-9645-C34F2DA9F9BE}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCD33AB-889F-4981-8CA4-BF6999658CB5}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E4EB72-3B5B-45B5-95DD-D29AFD353593}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45583</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45583</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <f>C9*C10*100</f>
+        <v>200</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11">
+        <f>G9*G10*100</f>
+        <v>50</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f>C10*100</f>
+        <v>100</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <f>G10*100</f>
+        <v>100</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <f>C12*C8</f>
+        <v>5000</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <f>G12*G8</f>
+        <v>5300</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J14" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <f>C11-G11</f>
+        <v>150</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6">
+        <f>C8++C9-G9</f>
+        <v>51.5</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <f>C15</f>
+        <v>150</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="J18" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <f>(G8-(C8+C9)*C10)*100</f>
+        <v>100</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="J19" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E20" s="6"/>
+      <c r="J20" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="6"/>
+      <c r="J21" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23" s="5">
+        <f>(C23-$C$17)*$C$10*100</f>
+        <v>-150</v>
+      </c>
+      <c r="E23" s="4">
+        <f>D23/$C$15</f>
+        <v>-1</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="J23" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>52</v>
+      </c>
+      <c r="D24" s="5">
+        <f>(C24-$C$8-$C$9)*$C$10*100+G11</f>
+        <v>50</v>
+      </c>
+      <c r="E24" s="4">
+        <f>D24/$C$15</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="5">
+        <f>G8</f>
+        <v>53</v>
+      </c>
+      <c r="D25" s="5">
+        <f>(C25-$C$8-$C$9)*$C$10*100-(C25-$G$8-$G$9)*$G$10*100</f>
+        <v>150</v>
+      </c>
+      <c r="E25" s="4">
+        <f>D25/$C$15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+      <c r="D26" s="5">
+        <f>(C26-$C$8-$C$9)*$C$10*100-(C26-$G$8-$G$9)*$G$10*100</f>
+        <v>150</v>
+      </c>
+      <c r="E26" s="4">
+        <f>D26/$C$15</f>
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE7DE54-D7F9-4B7C-B8FD-97EB76B45721}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB41028-7EC5-4FF7-9AC8-5D41569CA178}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Options.xlsx
+++ b/Options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5BD773-9E31-415B-878E-F96B529F22CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9564B5E8-A0C7-47D3-AECD-3A0B9B468515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="688" firstSheet="4" activeTab="6" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="688" activeTab="7" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="83">
   <si>
     <t>Puts</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Break Even</t>
   </si>
   <si>
-    <t>Max Loss</t>
-  </si>
-  <si>
     <t>Directional Bet</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
   </si>
   <si>
     <t>Premium Paid</t>
-  </si>
-  <si>
-    <t>Unlimited</t>
   </si>
   <si>
     <t>Target 1</t>
@@ -176,12 +170,6 @@
     <t>Maximum loss is made when Price of Underlying Security &gt; or = Strike Price</t>
   </si>
   <si>
-    <t>Max Profit (0)</t>
-  </si>
-  <si>
-    <t>Max Profit (∞)</t>
-  </si>
-  <si>
     <t>Net Credit (Upfront Payment Received)</t>
   </si>
   <si>
@@ -209,9 +197,6 @@
     <t>Credit Reveived</t>
   </si>
   <si>
-    <t>Target 4</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -260,10 +245,58 @@
     <t>Maximum loss per option owned is Price of Option Leg A – Price of Option Leg B</t>
   </si>
   <si>
-    <t>Target 3 (max profit)</t>
-  </si>
-  <si>
-    <t>Target 1 (max loss)</t>
+    <t>Bull Call Spread Rechner</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Target Overshoot</t>
+  </si>
+  <si>
+    <t>Long Call Rechner</t>
+  </si>
+  <si>
+    <t>Long Put Rechner</t>
+  </si>
+  <si>
+    <t>Loss 1</t>
+  </si>
+  <si>
+    <t>Loss 2</t>
+  </si>
+  <si>
+    <t>Loss 3</t>
+  </si>
+  <si>
+    <t>Bear Put Spread</t>
+  </si>
+  <si>
+    <t>Bear Put Spread Rechner</t>
+  </si>
+  <si>
+    <t>Long Put  ATM/OTM, Writing a Lower Put OTM, Same Time of Expiration</t>
+  </si>
+  <si>
+    <t>Leg A = Buy ATM or OTM Put Option, Leg B = Write Lower Strike Put Option</t>
+  </si>
+  <si>
+    <t>Break-even point is when Price of Underlying Security = Strike Price Leg A – (Price of Options Leg A – Price of Options Leg B)</t>
+  </si>
+  <si>
+    <t>Maximum profit is made when Price of Underlying Security &lt; or = Strike Price Leg B</t>
+  </si>
+  <si>
+    <t>Maximum profit, per option owned is (Strike Price Leg A – Strike Price Leg B) – (Price of Option Leg A – Price of Option Leg B)</t>
+  </si>
+  <si>
+    <t>Maximum loss is made when Price of Underlying Security &gt; or = Strike Price Leg A</t>
+  </si>
+  <si>
+    <t>Maximum loss per option owned is Price of Option in Leg A – Price of Option Leg B</t>
+  </si>
+  <si>
+    <t>FEHLT NOCH</t>
   </si>
 </sst>
 </file>
@@ -304,15 +337,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -320,12 +383,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -334,9 +497,69 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1597,327 +1820,714 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:N44"/>
+  <dimension ref="B2:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="55">
+        <v>45583</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="56">
+        <v>50</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="57" t="str">
+        <f>"Max Loss (&lt; Strike " &amp; C5 &amp; "$)"</f>
+        <v>Max Loss (&lt; Strike 50$)</v>
+      </c>
+      <c r="F5" s="59">
+        <v>48</v>
+      </c>
+      <c r="G5" s="58">
+        <f>IF(F5&lt;=C5,-(C6*C9))</f>
+        <v>-200</v>
+      </c>
+      <c r="H5" s="59">
+        <f>G5/$C$8</f>
+        <v>-1</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="57">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="D6" s="41"/>
+      <c r="E6" s="57" t="str">
+        <f>"BE = Strike + Price"</f>
+        <v>BE = Strike + Price</v>
+      </c>
+      <c r="F6" s="59">
+        <f>C5+C6</f>
+        <v>52</v>
+      </c>
+      <c r="G6" s="58">
+        <f>(F6-$C$5-$C$6)*$C$7*100</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="59">
+        <f>G6/$C$8</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="57">
+        <v>1</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="59">
+        <v>55</v>
+      </c>
+      <c r="G7" s="58">
+        <f>IF(F7&gt;C5,((F7-C5-C6)*C9),G5)</f>
+        <v>300</v>
+      </c>
+      <c r="H7" s="59">
+        <f>G7/$C$8</f>
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="57">
+        <f>C6*C7*100</f>
+        <v>200</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="59">
+        <v>60</v>
+      </c>
+      <c r="G8" s="58">
+        <f>IF(F8&gt;C5,((F8-C5-C6)*C9),G5)</f>
+        <v>800</v>
+      </c>
+      <c r="H8" s="59">
+        <f>G8/$C$8</f>
+        <v>4</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="57">
+        <f>C7*100</f>
+        <v>100</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="59">
+        <v>70</v>
+      </c>
+      <c r="G9" s="58">
+        <f>IF(F9&gt;C5,((F9-C5-C6)*C9),G5)</f>
+        <v>1800</v>
+      </c>
+      <c r="H9" s="59">
+        <f>G9/$C$8</f>
+        <v>9</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="57">
+        <f>C9*C5</f>
+        <v>5000</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="45"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="45"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="44"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="45"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="44"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="S15" s="18"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="44"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="45"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="44"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G24" s="5"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45583</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6">
+        <v>25</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="10" t="str">
+        <f>"Max Loss (&lt; Strike " &amp; C30 &amp; "$)"</f>
+        <v>Max Loss (&lt; Strike 25$)</v>
+      </c>
+      <c r="F30" s="9">
+        <f>C30-2</f>
+        <v>23</v>
+      </c>
+      <c r="G30" s="11">
+        <f>IF(F30&lt;=C30,-(C31*C34))</f>
+        <v>-10000</v>
+      </c>
+      <c r="H30" s="9">
+        <f>G30/$C$8</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="10" t="str">
+        <f>"BE = Strike + Price"</f>
+        <v>BE = Strike + Price</v>
+      </c>
+      <c r="F31" s="9">
+        <f>C30+C31</f>
+        <v>27</v>
+      </c>
+      <c r="G31" s="26">
+        <f>(F31-$C$30-$C$31)*$C$32*100</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <f>G31/$C$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
         <v>50</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45583</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="I7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="D32" s="5"/>
+      <c r="E32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="4">
+        <v>29</v>
+      </c>
+      <c r="G32" s="26">
+        <f>IF(F32&gt;C30,((F32-C30-C31)*C34),G30)</f>
+        <v>10000</v>
+      </c>
+      <c r="H32" s="9">
+        <f>G32/$C$8</f>
         <v>50</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="I8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="10">
+        <f>C31*C32*100</f>
+        <v>10000</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="4">
+        <v>31</v>
+      </c>
+      <c r="G33" s="26">
+        <f>IF(F33&gt;C30,((F33-C30-C31)*C34),G30)</f>
+        <v>20000</v>
+      </c>
+      <c r="H33" s="9">
+        <f>G33/$C$8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="I10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <f>C9*C10*100</f>
-        <v>200</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="I11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C34" s="10">
+        <f>C32*100</f>
+        <v>5000</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="4">
+        <v>33</v>
+      </c>
+      <c r="G34" s="26">
+        <f>IF(F34&gt;C30,((F34-C30-C31)*C34),G30)</f>
+        <v>30000</v>
+      </c>
+      <c r="H34" s="9">
+        <f>G34/$C$8</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12">
-        <f>C10*100</f>
-        <v>100</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="I12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <f>C12*C8</f>
-        <v>5000</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-      <c r="I16" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="6">
-        <f>C8+C9</f>
-        <v>52</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="I17" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <f>C11</f>
-        <v>200</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="I18" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="I19" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="6"/>
-      <c r="I20" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="6"/>
-      <c r="I21" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>55</v>
-      </c>
-      <c r="D23" s="5">
-        <f>(C23-$C$8-$C$9)*$C$10*100</f>
-        <v>300</v>
-      </c>
-      <c r="E23" s="4">
-        <f>D23/$C$11</f>
-        <v>1.5</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>60</v>
-      </c>
-      <c r="D24" s="5">
-        <f>(C24-$C$8-$C$9)*$C$10*100</f>
-        <v>800</v>
-      </c>
-      <c r="E24" s="4">
-        <f>D24/$C$11</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>70</v>
-      </c>
-      <c r="D25" s="5">
-        <f>(C25-$C$8-$C$9)*$C$10*100</f>
-        <v>1800</v>
-      </c>
-      <c r="E25" s="4">
-        <f>D25/$C$11</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C35" s="10">
+        <f>C34*C30</f>
+        <v>125000</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1928,321 +2538,607 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B3:N29"/>
+  <dimension ref="B2:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E5" sqref="E5:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="44"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="55">
+        <v>45583</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="44"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="56">
+        <v>50</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="57" t="str">
+        <f>"Max Loss (&gt; Strike " &amp; C5 &amp; "$)"</f>
+        <v>Max Loss (&gt; Strike 50$)</v>
+      </c>
+      <c r="F5" s="59">
+        <v>52</v>
+      </c>
+      <c r="G5" s="58">
+        <f>IF(F5&gt;=C5,(C6*C9))</f>
+        <v>-200</v>
+      </c>
+      <c r="H5" s="59">
+        <f>G5/$C$8</f>
+        <v>-1</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="44"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="57">
+        <v>2</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="57" t="str">
+        <f>"BE = Strike - Price"</f>
+        <v>BE = Strike - Price</v>
+      </c>
+      <c r="F6" s="59">
+        <f>C5-C6</f>
+        <v>48</v>
+      </c>
+      <c r="G6" s="58">
+        <f>($C$5-$C$6-F6)*$C$7*100</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="59">
+        <f>G6/$C$8</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="44"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="57">
+        <v>1</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="59">
+        <v>45</v>
+      </c>
+      <c r="G7" s="58">
+        <f>IF(F7&lt;C5,((F7-C5-C6)*C9),G5)</f>
+        <v>700</v>
+      </c>
+      <c r="H7" s="59">
+        <f>G7/$C$8</f>
+        <v>3.5</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="44"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="57">
+        <f>C6*C7*100</f>
+        <v>200</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="59">
+        <v>40</v>
+      </c>
+      <c r="G8" s="58">
+        <f>IF(F8&lt;C5,((F8-C5-C6)*C9),G5)</f>
+        <v>1200</v>
+      </c>
+      <c r="H8" s="59">
+        <f t="shared" ref="H8:H9" si="0">G8/$C$8</f>
+        <v>6</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="44"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="57">
+        <f>-C7*100</f>
+        <v>-100</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="59">
+        <v>20</v>
+      </c>
+      <c r="G9" s="58">
+        <f>IF(F9&lt;C5,((F9-C5-C6)*C9),G5)</f>
+        <v>3200</v>
+      </c>
+      <c r="H9" s="59">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="44"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="57">
+        <f>C9*C5</f>
+        <v>-5000</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="44"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="45"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="44"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="41"/>
+      <c r="L12" s="44"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="41"/>
+      <c r="L13" s="44"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="45"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="41"/>
+      <c r="L14" s="44"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="41"/>
+      <c r="L15" s="44"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="41"/>
+      <c r="L16" s="44"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="41"/>
+      <c r="L17" s="44"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="45"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="K18" s="41"/>
+      <c r="L18" s="44"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="44"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="44"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="44"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="66">
+        <v>45583</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="67">
+        <v>25</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="57" t="str">
+        <f>"Max Loss (&gt; Strike " &amp; C29 &amp; "$)"</f>
+        <v>Max Loss (&gt; Strike 25$)</v>
+      </c>
+      <c r="F29" s="59">
+        <f>C29+2</f>
+        <v>27</v>
+      </c>
+      <c r="G29" s="58">
+        <f>IF(F29&gt;=C29,(C30*C33))</f>
+        <v>-5000</v>
+      </c>
+      <c r="H29" s="59">
+        <f>G29/$C$32</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="39">
+        <v>1</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="57" t="str">
+        <f>"BE = Strike - Price"</f>
+        <v>BE = Strike - Price</v>
+      </c>
+      <c r="F30" s="59">
+        <f>C29-C30</f>
+        <v>24</v>
+      </c>
+      <c r="G30" s="58">
+        <f>($C$29-$C$30-F30)*$C$31*100</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="59">
+        <f t="shared" ref="H30:H33" si="1">G30/$C$32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="39">
         <v>50</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="D31" s="40"/>
+      <c r="E31" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="68">
+        <v>22</v>
+      </c>
+      <c r="G31" s="58">
+        <f>IF(F31&lt;C29,((F31-C29-C30)*C33),G29)</f>
+        <v>20000</v>
+      </c>
+      <c r="H31" s="59">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="57">
+        <f>C30*C31*100</f>
+        <v>5000</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="68">
+        <v>19</v>
+      </c>
+      <c r="G32" s="58">
+        <f>IF(F32&lt;C29,((F32-C29-C30)*C33),G29)</f>
+        <v>35000</v>
+      </c>
+      <c r="H32" s="59">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45583</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="I8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>50</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="I9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="I11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <f>C10*C11*100</f>
-        <v>200</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="I12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C33" s="57">
+        <f>-C31*100</f>
+        <v>-5000</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="68">
+        <v>10</v>
+      </c>
+      <c r="G33" s="58">
+        <f>IF(F33&lt;C29,((F33-C29-C30)*C33),G29)</f>
+        <v>80000</v>
+      </c>
+      <c r="H33" s="59">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
-        <f>-C11*100</f>
-        <v>-100</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="I13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <f>C13*C9</f>
-        <v>-5000</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="6">
-        <f>C9-C10</f>
-        <v>48</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="I18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <f>C12</f>
-        <v>200</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20">
-        <f>-(C18*C13)</f>
-        <v>4800</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="6"/>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="6"/>
-      <c r="I22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>48</v>
-      </c>
-      <c r="D24" s="5">
-        <f>(($C$9-C24)-$C$10)*100</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <f>D24/$C$12</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>45</v>
-      </c>
-      <c r="D25" s="5">
-        <f>(($C$9-C25)-$C$10)*100</f>
-        <v>300</v>
-      </c>
-      <c r="E25" s="4">
-        <f>D25/$C$12</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>35</v>
-      </c>
-      <c r="D26" s="5">
-        <f>(($C$9-C26)-$C$10)*100</f>
-        <v>1300</v>
-      </c>
-      <c r="E26" s="4">
-        <f>D26/$C$12</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
+      <c r="C34" s="57">
+        <f>C33*C29</f>
+        <v>-125000</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2254,303 +3150,469 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B3:M27"/>
+  <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+    </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="38">
+        <v>45583</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28">
+        <v>50</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="39" t="str">
+        <f>"Max Profit (&gt; Strike " &amp; C5 &amp; "$)"</f>
+        <v>Max Profit (&gt; Strike 50$)</v>
+      </c>
+      <c r="F5" s="29">
+        <f>C5+2</f>
+        <v>52</v>
+      </c>
+      <c r="G5" s="22">
+        <f>IF(F5&gt;=C5,C8)</f>
+        <v>200</v>
+      </c>
+      <c r="H5" s="29">
+        <f>G5/$C$8</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="24">
+        <v>2</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="39" t="str">
+        <f>"BE = Strike - Price"</f>
+        <v>BE = Strike - Price</v>
+      </c>
+      <c r="F6" s="29">
+        <f>C5-C6</f>
+        <v>48</v>
+      </c>
+      <c r="G6" s="22">
+        <f>-(($C$5-F6)-$C$6)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="29">
+        <f t="shared" ref="H6:H9" si="0">G6/$C$8</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="29">
+        <v>46</v>
+      </c>
+      <c r="G7" s="22">
+        <f>IF(F7&lt;C5,-((C5-F7-C6)*C9),G5)</f>
+        <v>-200</v>
+      </c>
+      <c r="H7" s="29">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="36">
+        <f>C6*C7*100</f>
+        <v>200</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="29">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="G8" s="22">
+        <f>IF(F8&lt;C5,-((C5-F8-C6)*C9),G5)</f>
+        <v>-300</v>
+      </c>
+      <c r="H8" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="24">
+        <v>100</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="29">
+        <v>35</v>
+      </c>
+      <c r="G9" s="22">
+        <f>IF(F9&lt;C5,-((C5-F9-C6)*C9),G5)</f>
+        <v>-1300</v>
+      </c>
+      <c r="H9" s="29">
+        <f t="shared" si="0"/>
+        <v>-6.5</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="24">
+        <f>C9*C5</f>
+        <v>5000</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="69"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I5" s="9" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45583</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="I8" s="9" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>50</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="I9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="I11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12">
-        <f>C10*C11*100</f>
-        <v>200</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="I12" s="9" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>49</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="I13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <f>C13*C9</f>
-        <v>5000</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="I14" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="6">
-        <f>C9-C10</f>
-        <v>48</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <f>-(C18*C13)</f>
-        <v>-4800</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="I19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20">
-        <f>C12</f>
-        <v>200</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="6"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="6"/>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>48</v>
-      </c>
-      <c r="D24" s="5">
-        <f>(($C$9-C24)-$C$10)*100</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <f>D24/$C$12</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>45</v>
-      </c>
-      <c r="D25" s="5">
-        <f>-(($C$9-C25)-$C$10)*100</f>
-        <v>-300</v>
-      </c>
-      <c r="E25" s="4">
-        <f>D25/$C$12</f>
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>55</v>
-      </c>
-      <c r="D26" s="5">
-        <f>C12</f>
-        <v>200</v>
-      </c>
-      <c r="E26" s="4">
-        <f>D26/$C$12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2593,375 +3655,994 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:N27"/>
+  <dimension ref="B2:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="38">
+        <v>45583</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="38">
+        <v>45583</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="24" t="str">
+        <f>"Max Loss (&lt;=Leg A Strike " &amp; C6 &amp; "$)"</f>
+        <v>Max Loss (&lt;=Leg A Strike 50$)</v>
+      </c>
+      <c r="I5" s="27">
+        <f>C6</f>
+        <v>50</v>
+      </c>
+      <c r="J5" s="24">
+        <f>IF(I5&lt;=C6,(-C7*C10+F7*F10))</f>
+        <v>-150</v>
+      </c>
+      <c r="K5" s="27">
+        <f>J5/$C$13</f>
+        <v>-1</v>
+      </c>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="28">
+        <v>50</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="28">
+        <v>53</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="27">
+        <f>C6+C7-F7</f>
+        <v>51.5</v>
+      </c>
+      <c r="J6" s="26">
+        <f>(I6-$C$6-$C$7)*C10+F7*F10</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="27">
+        <f>J6/$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="24">
+        <v>2</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="27">
+        <v>52.5</v>
+      </c>
+      <c r="J7" s="26">
+        <f>IF(AND(I7&gt;C6,I7&lt;F6),(((I7-C6)*C10-C9+F9)),IF(I7&lt;=I5,J5,IF(I7&gt;=F6,J8)))</f>
+        <v>100</v>
+      </c>
+      <c r="K7" s="27">
+        <f>J7/$C$13</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="24" t="str">
+        <f>"Max Profit (Leg B Strike " &amp; F6 &amp; "$)"</f>
+        <v>Max Profit (Leg B Strike 53$)</v>
+      </c>
+      <c r="I8" s="27">
+        <f>F6</f>
+        <v>53</v>
+      </c>
+      <c r="J8" s="26">
+        <f>(I8-C6-C7)*C8*100-(I8-F6-F7)*F8*100</f>
+        <v>150</v>
+      </c>
+      <c r="K8" s="27">
+        <f>J8/$C$13</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="24">
+        <f>C7*C8*100</f>
+        <v>200</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="24">
+        <f>F7*F8*100</f>
+        <v>50</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="27">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="J9" s="26">
+        <f>IF(AND(I9&gt;C6,I9&lt;F6),(((I9-C6)*C10-C9+F9)),IF(I9&lt;=I5,J5,IF(I9&gt;=F6,J8)))</f>
+        <v>150</v>
+      </c>
+      <c r="K9" s="27">
+        <f>J9/$C$13</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="24">
+        <f>C8*100</f>
+        <v>100</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="24">
+        <f>F8*100</f>
+        <v>100</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="24">
+        <f>C10*C6</f>
+        <v>5000</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="24">
+        <f>F10*F6</f>
+        <v>5300</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="61"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="36">
+        <f>C9-F9</f>
+        <v>150</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="43"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="45"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="45"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="41"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="45"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="E34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="H34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45856</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45856</v>
+      </c>
+      <c r="H35" s="10" t="str">
+        <f>"Max Loss (&lt;=Leg A Strike " &amp; C36 &amp; "$)"</f>
+        <v>Max Loss (&lt;=Leg A Strike 17$)</v>
+      </c>
+      <c r="I35" s="9">
+        <v>17</v>
+      </c>
+      <c r="J35" s="10">
+        <f>IF(I35&lt;=C36,(-C37*C40+F37*F40))</f>
+        <v>-6000</v>
+      </c>
+      <c r="K35" s="9">
+        <f>J35/$C$43</f>
+        <v>-0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6">
+        <v>17</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>23</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="9">
+        <f>C36+C37-F37</f>
+        <v>18.2</v>
+      </c>
+      <c r="J36" s="11">
+        <f>(I36-$C$36-$C$37)*C40+F37*F40</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" ref="K36:K40" si="0">J36/$C$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="4">
+        <v>20</v>
+      </c>
+      <c r="J37" s="11">
+        <f>IF(AND(I37&gt;C36,I37&lt;F36),(((I37-C36)*C40-C39+F39)),IF(I37&lt;=I35,J35,IF(I37&gt;=F36,J39)))</f>
+        <v>8999.9999999999982</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
         <v>50</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D38" s="5"/>
+      <c r="E38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1">
-        <v>45583</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="4">
+        <v>22</v>
+      </c>
+      <c r="J38" s="11">
+        <f>IF(AND(I38&gt;C36,I38&lt;F36),(((I38-C36)*C40-C39+F39)),IF(I38&lt;=I35,J35,IF(I38&gt;=F36,J39)))</f>
+        <v>19000</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666656</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="10">
+        <f>C37*C38*100</f>
+        <v>11000.000000000002</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="10">
+        <f>F37*F38*100</f>
+        <v>5000</v>
+      </c>
+      <c r="H39" s="10" t="str">
+        <f>"Max Profit (Leg B Strike " &amp; F36 &amp; "$)"</f>
+        <v>Max Profit (Leg B Strike 23$)</v>
+      </c>
+      <c r="I39" s="9">
+        <f>F36</f>
         <v>23</v>
       </c>
-      <c r="G7" s="1">
-        <v>45583</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>50</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>53</v>
-      </c>
-      <c r="J8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="J39" s="11">
+        <f>(I39-C36-C37)*C38*100-(I39-F36-F37)*F38*100</f>
+        <v>24000</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999987</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="F10" t="s">
+      <c r="C40" s="10">
+        <f>C38*100</f>
+        <v>5000</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <f>C9*C10*100</f>
-        <v>200</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11">
-        <f>G9*G10*100</f>
-        <v>50</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="F40" s="10">
+        <f>F38*100</f>
+        <v>5000</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="4">
+        <v>26</v>
+      </c>
+      <c r="J40" s="11">
+        <f>IF(AND(I40&gt;C36,I40&lt;F36),(((I40-C36)*C40-C39+F39)),IF(I40&lt;=I35,J35,IF(I40&gt;=F36,J39)))</f>
+        <v>24000</v>
+      </c>
+      <c r="K40" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999987</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12">
-        <f>C10*100</f>
-        <v>100</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="F12" t="s">
+      <c r="C41" s="10">
+        <f>C40*C36</f>
+        <v>85000</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G12">
-        <f>G10*100</f>
-        <v>100</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <f>C12*C8</f>
-        <v>5000</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13">
-        <f>G12*G8</f>
-        <v>5300</v>
-      </c>
-      <c r="J13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J14" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15">
-        <f>C11-G11</f>
-        <v>150</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="6">
-        <f>C8++C9-G9</f>
-        <v>51.5</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <f>C15</f>
-        <v>150</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="J18" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19">
-        <f>(G8-(C8+C9)*C10)*100</f>
-        <v>100</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="J19" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E20" s="6"/>
-      <c r="J20" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="6"/>
-      <c r="J21" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23">
-        <v>50</v>
-      </c>
-      <c r="D23" s="5">
-        <f>(C23-$C$17)*$C$10*100</f>
-        <v>-150</v>
-      </c>
-      <c r="E23" s="4">
-        <f>D23/$C$15</f>
-        <v>-1</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="J23" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>52</v>
-      </c>
-      <c r="D24" s="5">
-        <f>(C24-$C$8-$C$9)*$C$10*100+G11</f>
-        <v>50</v>
-      </c>
-      <c r="E24" s="4">
-        <f>D24/$C$15</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="5">
-        <f>G8</f>
-        <v>53</v>
-      </c>
-      <c r="D25" s="5">
-        <f>(C25-$C$8-$C$9)*$C$10*100-(C25-$G$8-$G$9)*$G$10*100</f>
-        <v>150</v>
-      </c>
-      <c r="E25" s="4">
-        <f>D25/$C$15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26">
-        <v>60</v>
-      </c>
-      <c r="D26" s="5">
-        <f>(C26-$C$8-$C$9)*$C$10*100-(C26-$G$8-$G$9)*$G$10*100</f>
-        <v>150</v>
-      </c>
-      <c r="E26" s="4">
-        <f>D26/$C$15</f>
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
+      <c r="F41" s="10">
+        <f>F40*F36</f>
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="13">
+        <f>C39-F39</f>
+        <v>6000.0000000000018</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2974,12 +4655,1059 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="38">
+        <v>45583</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="38">
+        <v>45583</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="24" t="str">
+        <f>"Max Loss (&lt;=Leg A Strike " &amp; C6 &amp; "$)"</f>
+        <v>Max Loss (&lt;=Leg A Strike 50$)</v>
+      </c>
+      <c r="I5" s="27">
+        <f>C6</f>
+        <v>50</v>
+      </c>
+      <c r="J5" s="24">
+        <f>IF(I5&gt;=C6,(C7*C10-F7*F10))</f>
+        <v>-150</v>
+      </c>
+      <c r="K5" s="27">
+        <f>J5/$C$13</f>
+        <v>-1</v>
+      </c>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="28">
+        <v>50</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="28">
+        <v>47</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="27">
+        <f>C6-C7+F7</f>
+        <v>48.5</v>
+      </c>
+      <c r="J6" s="26">
+        <f>($C$6-I6-$C$7)*C10+F7*F10</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="27">
+        <f>J6/$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="24">
+        <v>2</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="27">
+        <v>47.5</v>
+      </c>
+      <c r="J7" s="26">
+        <f>IF(AND(I7&lt;C6,I7&gt;F6),(((I7-C6)*C10-C9+F9)),IF(I7&gt;=I5,J5,IF(I7&lt;=F6,J8)))</f>
+        <v>100</v>
+      </c>
+      <c r="K7" s="27">
+        <f>J7/$C$13</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="24" t="str">
+        <f>"Max Profit (Leg B Strike " &amp; F6 &amp; "$)"</f>
+        <v>Max Profit (Leg B Strike 47$)</v>
+      </c>
+      <c r="I8" s="27">
+        <v>47</v>
+      </c>
+      <c r="J8" s="26">
+        <f>(C6-I8-C7)*C8*100-(F6-I8-F7)*F8*100</f>
+        <v>150</v>
+      </c>
+      <c r="K8" s="27">
+        <f>J8/$C$13</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="24">
+        <f>C7*C8*100</f>
+        <v>200</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="24">
+        <f>F7*F8*100</f>
+        <v>50</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="27">
+        <v>40</v>
+      </c>
+      <c r="J9" s="26">
+        <f>IF(AND(I9&lt;C6,I9&gt;F6),(((I9-C6)*C10-C9+F9)),IF(I9&gt;=I5,J5,IF(I9&lt;=F6,J8)))</f>
+        <v>150</v>
+      </c>
+      <c r="K9" s="27">
+        <f>J9/$C$13</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="24">
+        <f>-C8*100</f>
+        <v>-100</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="24">
+        <f>-F8*100</f>
+        <v>-100</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="24">
+        <f>C10*C6</f>
+        <v>-5000</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="24">
+        <f>F10*F6</f>
+        <v>-4700</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="61"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="36">
+        <f>C9-F9</f>
+        <v>150</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="43"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="45"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="45"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="41"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="45"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="E34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="H34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45856</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45856</v>
+      </c>
+      <c r="H35" s="10" t="str">
+        <f>"Max Loss (&lt;=Leg A Strike " &amp; C36 &amp; "$)"</f>
+        <v>Max Loss (&lt;=Leg A Strike 17$)</v>
+      </c>
+      <c r="I35" s="9">
+        <v>17</v>
+      </c>
+      <c r="J35" s="10">
+        <f>IF(I35&lt;=C36,(-C37*C40+F37*F40))</f>
+        <v>-6000</v>
+      </c>
+      <c r="K35" s="9">
+        <f>J35/$C$43</f>
+        <v>-0.99999999999999967</v>
+      </c>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6">
+        <v>17</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>23</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="9">
+        <f>C36+C37-F37</f>
+        <v>18.2</v>
+      </c>
+      <c r="J36" s="11">
+        <f>(I36-$C$36-$C$37)*C40+F37*F40</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" ref="K36:K40" si="0">J36/$C$43</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="4">
+        <v>20</v>
+      </c>
+      <c r="J37" s="11">
+        <f>IF(AND(I37&gt;C36,I37&lt;F36),(((I37-C36)*C40-C39+F39)),IF(I37&lt;=I35,J35,IF(I37&gt;=F36,J39)))</f>
+        <v>8999.9999999999982</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999993</v>
+      </c>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>50</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="4">
+        <v>22</v>
+      </c>
+      <c r="J38" s="11">
+        <f>IF(AND(I38&gt;C36,I38&lt;F36),(((I38-C36)*C40-C39+F39)),IF(I38&lt;=I35,J35,IF(I38&gt;=F36,J39)))</f>
+        <v>19000</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666656</v>
+      </c>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="10">
+        <f>C37*C38*100</f>
+        <v>11000.000000000002</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="10">
+        <f>F37*F38*100</f>
+        <v>5000</v>
+      </c>
+      <c r="H39" s="10" t="str">
+        <f>"Max Profit (Leg B Strike " &amp; F36 &amp; "$)"</f>
+        <v>Max Profit (Leg B Strike 23$)</v>
+      </c>
+      <c r="I39" s="9">
+        <f>F36</f>
+        <v>23</v>
+      </c>
+      <c r="J39" s="11">
+        <f>(I39-C36-C37)*C38*100-(I39-F36-F37)*F38*100</f>
+        <v>24000</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999987</v>
+      </c>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="10">
+        <f>C38*100</f>
+        <v>5000</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="10">
+        <f>F38*100</f>
+        <v>5000</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="4">
+        <v>26</v>
+      </c>
+      <c r="J40" s="11">
+        <f>IF(AND(I40&gt;C36,I40&lt;F36),(((I40-C36)*C40-C39+F39)),IF(I40&lt;=I35,J35,IF(I40&gt;=F36,J39)))</f>
+        <v>24000</v>
+      </c>
+      <c r="K40" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999987</v>
+      </c>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="10">
+        <f>C40*C36</f>
+        <v>85000</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="10">
+        <f>F40*F36</f>
+        <v>115000</v>
+      </c>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="70"/>
+    </row>
+    <row r="42" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70"/>
+    </row>
+    <row r="43" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="13">
+        <f>C39-F39</f>
+        <v>6000.0000000000018</v>
+      </c>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Options.xlsx
+++ b/Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCF0C18-1F13-450C-A044-934E8EF1D981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AD375D-3282-4B4F-A1BA-C2FEC70E32DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="688" firstSheet="3" activeTab="8" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="688" firstSheet="4" activeTab="10" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="98">
   <si>
     <t>Puts</t>
   </si>
@@ -637,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -686,10 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1924,12 +1921,840 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="29"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="28"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="28"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="24">
+        <v>45583</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="24">
+        <v>45583</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="10" t="str">
+        <f>"Max Loss (&lt;=Leg A Strike " &amp; C6 &amp; "$)"</f>
+        <v>Max Loss (&lt;=Leg A Strike 50$)</v>
+      </c>
+      <c r="I5" s="9">
+        <f>C6</f>
+        <v>50</v>
+      </c>
+      <c r="J5" s="10">
+        <f>IF(I5&lt;=C6,(-C7*C10+F7*F10))</f>
+        <v>-150</v>
+      </c>
+      <c r="K5" s="9">
+        <f>J5/$C$13</f>
+        <v>-1</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="28"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <v>50</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>53</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="9">
+        <f>C6+C7-F7</f>
+        <v>51.5</v>
+      </c>
+      <c r="J6" s="11">
+        <f>(I6-$C$6-$C$7)*C10+F7*F10</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <f>J6/$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="28"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="J7" s="11">
+        <f>IF(AND(I7&gt;C6,I7&lt;F6),(((I7-C6)*C10-C9+F9)),IF(I7&lt;=I5,J5,IF(I7&gt;=F6,J8)))</f>
+        <v>100</v>
+      </c>
+      <c r="K7" s="9">
+        <f>J7/$C$13</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="28"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="10" t="str">
+        <f>"Max Profit (Leg B Strike " &amp; F6 &amp; "$)"</f>
+        <v>Max Profit (Leg B Strike 53$)</v>
+      </c>
+      <c r="I8" s="9">
+        <f>F6</f>
+        <v>53</v>
+      </c>
+      <c r="J8" s="11">
+        <f>(I8-C6-C7)*C8*100-(I8-F6-F7)*F8*100</f>
+        <v>150</v>
+      </c>
+      <c r="K8" s="9">
+        <f>J8/$C$13</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="28"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="10">
+        <f>C7*C8*100</f>
+        <v>200</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="10">
+        <f>F7*F8*100</f>
+        <v>50</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="9">
+        <v>55</v>
+      </c>
+      <c r="J9" s="11">
+        <f>IF(AND(I9&gt;C6,I9&lt;F6),(((I9-C6)*C10-C9+F9)),IF(I9&lt;=I5,J5,IF(I9&gt;=F6,J8)))</f>
+        <v>150</v>
+      </c>
+      <c r="K9" s="9">
+        <f>J9/$C$13</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="28"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="10">
+        <f>C8*100</f>
+        <v>100</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10">
+        <f>F8*100</f>
+        <v>100</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="28"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="10">
+        <f>C10*C6</f>
+        <v>5000</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="10">
+        <f>F10*F6</f>
+        <v>5300</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="28"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="45"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="28"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="12">
+        <f>C9-F9</f>
+        <v>150</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="28"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="25"/>
+      <c r="N16" s="28"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="25"/>
+      <c r="N17" s="28"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="25"/>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="25"/>
+      <c r="N19" s="28"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="25"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="25"/>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="28"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="28"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="28"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="28"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="28"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="34"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="54"/>
+      <c r="E34" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="49"/>
+      <c r="H34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45856</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45856</v>
+      </c>
+      <c r="H35" s="10" t="str">
+        <f>"Max Loss (&lt;=Leg A Strike " &amp; C36 &amp; "$)"</f>
+        <v>Max Loss (&lt;=Leg A Strike 17$)</v>
+      </c>
+      <c r="I35" s="9">
+        <v>17</v>
+      </c>
+      <c r="J35" s="10">
+        <f>IF(I35&lt;=C36,(-C37*C40+F37*F40))</f>
+        <v>-6000</v>
+      </c>
+      <c r="K35" s="9">
+        <f>J35/$C$43</f>
+        <v>-0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6">
+        <v>17</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>23</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="9">
+        <f>C36+C37-F37</f>
+        <v>18.2</v>
+      </c>
+      <c r="J36" s="11">
+        <f>(I36-$C$36-$C$37)*C40+F37*F40</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" ref="K36:K40" si="0">J36/$C$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="4">
+        <v>20</v>
+      </c>
+      <c r="J37" s="11">
+        <f>IF(AND(I37&gt;C36,I37&lt;F36),(((I37-C36)*C40-C39+F39)),IF(I37&lt;=I35,J35,IF(I37&gt;=F36,J39)))</f>
+        <v>8999.9999999999982</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>50</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="4">
+        <v>22</v>
+      </c>
+      <c r="J38" s="11">
+        <f>IF(AND(I38&gt;C36,I38&lt;F36),(((I38-C36)*C40-C39+F39)),IF(I38&lt;=I35,J35,IF(I38&gt;=F36,J39)))</f>
+        <v>19000</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666656</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="10">
+        <f>C37*C38*100</f>
+        <v>11000.000000000002</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="10">
+        <f>F37*F38*100</f>
+        <v>5000</v>
+      </c>
+      <c r="H39" s="10" t="str">
+        <f>"Max Profit (Leg B Strike " &amp; F36 &amp; "$)"</f>
+        <v>Max Profit (Leg B Strike 23$)</v>
+      </c>
+      <c r="I39" s="9">
+        <f>F36</f>
+        <v>23</v>
+      </c>
+      <c r="J39" s="11">
+        <f>(I39-C36-C37)*C38*100-(I39-F36-F37)*F38*100</f>
+        <v>24000</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999987</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="10">
+        <f>C38*100</f>
+        <v>5000</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="10">
+        <f>F38*100</f>
+        <v>5000</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="4">
+        <v>26</v>
+      </c>
+      <c r="J40" s="11">
+        <f>IF(AND(I40&gt;C36,I40&lt;F36),(((I40-C36)*C40-C39+F39)),IF(I40&lt;=I35,J35,IF(I40&gt;=F36,J39)))</f>
+        <v>24000</v>
+      </c>
+      <c r="K40" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999987</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="10">
+        <f>C40*C36</f>
+        <v>85000</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="10">
+        <f>F40*F36</f>
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="12">
+        <f>C39-F39</f>
+        <v>6000.0000000000018</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1973,7 +2798,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="35"/>
@@ -2340,7 +3165,7 @@
       <c r="G24" s="5"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="51" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2523,7 +3348,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="35"/>
@@ -2925,7 +3750,7 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="51" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3107,7 +3932,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="52" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="13"/>
@@ -3449,7 +4274,7 @@
   <dimension ref="B2:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:C34"/>
+      <selection activeCell="O9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3467,7 +4292,7 @@
       <c r="B2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="35"/>
@@ -3498,15 +4323,15 @@
       <c r="N3" s="28"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="25"/>
       <c r="H4" s="8" t="s">
         <v>30</v>
@@ -4046,14 +4871,14 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="E34" s="52" t="s">
+      <c r="C34" s="54"/>
+      <c r="E34" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="52"/>
+      <c r="F34" s="49"/>
       <c r="H34" s="8" t="s">
         <v>30</v>
       </c>
@@ -4290,7 +5115,7 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:P45"/>
+  <dimension ref="B2:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:C4"/>
@@ -4311,7 +5136,7 @@
       <c r="B2" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="35"/>
@@ -4342,15 +5167,15 @@
       <c r="N3" s="28"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="25"/>
       <c r="H4" s="8" t="s">
         <v>30</v>
@@ -4889,22 +5714,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="57" t="s">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="E34" s="52" t="s">
+      <c r="C34" s="54"/>
+      <c r="E34" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="52"/>
+      <c r="F34" s="49"/>
       <c r="H34" s="8" t="s">
         <v>30</v>
       </c>
@@ -4915,13 +5733,8 @@
       <c r="K34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>22</v>
       </c>
@@ -4950,13 +5763,8 @@
         <f>J35/$C$43</f>
         <v>-1</v>
       </c>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>1</v>
       </c>
@@ -4982,16 +5790,11 @@
         <v>-7.2759576141834259E-12</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" ref="K36:K39" si="0">J36/$C$43</f>
+        <f t="shared" ref="K36:K38" si="0">J36/$C$43</f>
         <v>-9.0949470177292826E-16</v>
       </c>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>6</v>
       </c>
@@ -5019,13 +5822,8 @@
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>23</v>
       </c>
@@ -5053,13 +5851,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>26</v>
       </c>
@@ -5091,13 +5884,8 @@
         <f>J39/$C$43</f>
         <v>5.25</v>
       </c>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>24</v>
       </c>
@@ -5127,13 +5915,8 @@
         <f>J40/$C$43</f>
         <v>5.25</v>
       </c>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>25</v>
       </c>
@@ -5149,22 +5932,12 @@
         <f>F40*F36</f>
         <v>-200000</v>
       </c>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-    </row>
-    <row r="42" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-    </row>
-    <row r="43" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>55</v>
       </c>
@@ -5172,26 +5945,9 @@
         <f>C39-F39</f>
         <v>8000</v>
       </c>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5203,9 +5959,9 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:S45"/>
+  <dimension ref="B2:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
@@ -5226,7 +5982,7 @@
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="35"/>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>83</v>
       </c>
       <c r="F2" s="35"/>
@@ -5261,15 +6017,15 @@
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="25"/>
       <c r="H4" s="8" t="s">
         <v>30</v>
@@ -5757,18 +6513,18 @@
       <c r="Q21" s="28"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
@@ -5901,23 +6657,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="56" t="s">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="57"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="25"/>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="52"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="25"/>
       <c r="H34" s="8" t="s">
         <v>30</v>
@@ -5937,10 +6686,8 @@
         <f>C38 &amp; ":" &amp; F38</f>
         <v>2:1</v>
       </c>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="17" t="s">
         <v>22</v>
       </c>
@@ -5974,10 +6721,8 @@
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
       <c r="N35" s="25"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
         <v>1</v>
       </c>
@@ -6010,10 +6755,8 @@
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
       <c r="N36" s="25"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>6</v>
       </c>
@@ -6045,10 +6788,8 @@
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
       <c r="N37" s="25"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
         <v>23</v>
       </c>
@@ -6080,10 +6821,8 @@
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
         <v>26</v>
       </c>
@@ -6117,10 +6856,8 @@
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
       <c r="N39" s="25"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
         <v>24</v>
       </c>
@@ -6144,10 +6881,8 @@
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="N40" s="25"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
         <v>25</v>
       </c>
@@ -6171,10 +6906,8 @@
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
       <c r="N41" s="25"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-    </row>
-    <row r="42" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="45"/>
       <c r="C42" s="44"/>
       <c r="D42" s="25"/>
@@ -6188,10 +6921,8 @@
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
       <c r="N42" s="25"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-    </row>
-    <row r="43" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
         <v>55</v>
       </c>
@@ -6210,23 +6941,9 @@
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
       <c r="N43" s="25"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Options.xlsx
+++ b/Options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AD375D-3282-4B4F-A1BA-C2FEC70E32DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC14B9F0-FB5A-497B-ABB5-9B150D709794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="688" firstSheet="4" activeTab="10" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="688" firstSheet="4" activeTab="8" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -693,6 +693,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1923,8 +1926,8 @@
   </sheetPr>
   <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4273,8 +4276,8 @@
   </sheetPr>
   <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4905,18 +4908,19 @@
       </c>
       <c r="H35" s="10" t="str">
         <f>"Max Loss (&lt;=Leg A Strike " &amp; C36 &amp; "$)"</f>
-        <v>Max Loss (&lt;=Leg A Strike 17$)</v>
+        <v>Max Loss (&lt;=Leg A Strike 210$)</v>
       </c>
       <c r="I35" s="9">
-        <v>17</v>
+        <f>C36-1</f>
+        <v>209</v>
       </c>
       <c r="J35" s="10">
         <f>IF(I35&lt;=C36,(-C37*C40+F37*F40))</f>
-        <v>-6000</v>
+        <v>-22400</v>
       </c>
       <c r="K35" s="9">
         <f>J35/$C$43</f>
-        <v>-0.99999999999999967</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -4924,21 +4928,21 @@
         <v>1</v>
       </c>
       <c r="C36" s="6">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="6">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>65</v>
       </c>
       <c r="I36" s="9">
-        <f>C36+C37-F37</f>
-        <v>18.2</v>
+        <f>C36+(C37-F37)</f>
+        <v>221.2</v>
       </c>
       <c r="J36" s="11">
         <f>(I36-$C$36-$C$37)*C40+F37*F40</f>
@@ -4954,28 +4958,28 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>2.2000000000000002</v>
+        <v>19.5</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I37" s="4">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="J37" s="11">
         <f>IF(AND(I37&gt;C36,I37&lt;F36),(((I37-C36)*C40-C39+F39)),IF(I37&lt;=I35,J35,IF(I37&gt;=F36,J39)))</f>
-        <v>8999.9999999999982</v>
+        <v>7600</v>
       </c>
       <c r="K37" s="9">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999993</v>
+        <f>J37/$C$43</f>
+        <v>0.3392857142857143</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -4983,28 +4987,28 @@
         <v>23</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I38" s="4">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="J38" s="11">
         <f>IF(AND(I38&gt;C36,I38&lt;F36),(((I38-C36)*C40-C39+F39)),IF(I38&lt;=I35,J35,IF(I38&gt;=F36,J39)))</f>
-        <v>19000</v>
+        <v>27600</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="0"/>
-        <v>3.1666666666666656</v>
+        <v>1.2321428571428572</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -5013,7 +5017,7 @@
       </c>
       <c r="C39" s="10">
         <f>C37*C38*100</f>
-        <v>11000.000000000002</v>
+        <v>39000</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="10" t="s">
@@ -5021,23 +5025,23 @@
       </c>
       <c r="F39" s="10">
         <f>F37*F38*100</f>
-        <v>5000</v>
+        <v>16600</v>
       </c>
       <c r="H39" s="10" t="str">
         <f>"Max Profit (Leg B Strike " &amp; F36 &amp; "$)"</f>
-        <v>Max Profit (Leg B Strike 23$)</v>
+        <v>Max Profit (Leg B Strike 240$)</v>
       </c>
       <c r="I39" s="9">
         <f>F36</f>
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="J39" s="11">
         <f>(I39-C36-C37)*C38*100-(I39-F36-F37)*F38*100</f>
-        <v>24000</v>
+        <v>37600</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="0"/>
-        <v>3.9999999999999987</v>
+        <v>1.6785714285714286</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -5046,7 +5050,7 @@
       </c>
       <c r="C40" s="10">
         <f>C38*100</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="10" t="s">
@@ -5054,21 +5058,21 @@
       </c>
       <c r="F40" s="10">
         <f>F38*100</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>66</v>
       </c>
       <c r="I40" s="4">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="J40" s="11">
         <f>IF(AND(I40&gt;C36,I40&lt;F36),(((I40-C36)*C40-C39+F39)),IF(I40&lt;=I35,J35,IF(I40&gt;=F36,J39)))</f>
-        <v>24000</v>
+        <v>37600</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="0"/>
-        <v>3.9999999999999987</v>
+        <v>1.6785714285714286</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
@@ -5077,7 +5081,7 @@
       </c>
       <c r="C41" s="10">
         <f>C40*C36</f>
-        <v>85000</v>
+        <v>420000</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="10" t="s">
@@ -5085,7 +5089,7 @@
       </c>
       <c r="F41" s="10">
         <f>F40*F36</f>
-        <v>115000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5098,7 +5102,7 @@
       </c>
       <c r="C43" s="12">
         <f>C39-F39</f>
-        <v>6000.0000000000018</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -5961,8 +5965,8 @@
   </sheetPr>
   <dimension ref="B2:S44"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6682,8 +6686,8 @@
       <c r="M34" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="N34" s="25" t="str">
-        <f>C38 &amp; ":" &amp; F38</f>
+      <c r="N34" s="55" t="str">
+        <f>ROUND(C38/F38,2) &amp; ":" &amp; "1"</f>
         <v>2:1</v>
       </c>
     </row>
@@ -6692,31 +6696,31 @@
         <v>22</v>
       </c>
       <c r="C35" s="24">
-        <v>45583</v>
+        <v>45884</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="24">
-        <v>45583</v>
+        <v>45884</v>
       </c>
       <c r="G35" s="25"/>
       <c r="H35" s="10" t="str">
-        <f>"Max Loss (&lt;=Leg A Strike " &amp; C36 &amp; "$)"</f>
-        <v>Max Loss (&lt;=Leg A Strike 20$)</v>
+        <f>"Max Loss (=Leg A Strike " &amp; C36 &amp; "$)"</f>
+        <v>Max Loss (=Leg A Strike 220$)</v>
       </c>
       <c r="I35" s="9">
         <f>C36</f>
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="J35" s="10">
         <f>IF(AND(I35&gt;=F36,I35&lt;=C36),-(I35-F36)*F40)</f>
-        <v>-600</v>
+        <v>-10000</v>
       </c>
       <c r="K35" s="9">
         <f>J35/$C$43</f>
-        <v>-4.615384615384615</v>
+        <v>-1.1764705882352942</v>
       </c>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -6727,30 +6731,30 @@
         <v>1</v>
       </c>
       <c r="C36" s="9">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="9">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="G36" s="25"/>
       <c r="H36" s="10" t="s">
         <v>65</v>
       </c>
       <c r="I36" s="9">
-        <f>(C38*C36)-(F38*F36)</f>
-        <v>26</v>
+        <f>C36-(C37-F37)</f>
+        <v>231</v>
       </c>
       <c r="J36" s="11">
         <f>IF(AND(I36&gt;=C36,I36&gt;=F36),(((I36-C36)*C40-((I36-F36)*F40))),IF(I36&gt;=I35,J35,IF(I36&lt;=F36,J39)))</f>
-        <v>0</v>
+        <v>-4500</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" ref="K36:K39" si="0">J36/$C$43</f>
-        <v>0</v>
+        <v>-0.52941176470588236</v>
       </c>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
@@ -6761,29 +6765,29 @@
         <v>6</v>
       </c>
       <c r="C37" s="10">
-        <v>3.8</v>
+        <v>28</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F37" s="10">
-        <v>6.3</v>
+        <v>39</v>
       </c>
       <c r="G37" s="25"/>
       <c r="H37" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I37" s="9">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="J37" s="11">
         <f>IF(AND(I37&gt;=C36,I37&gt;=F36),(((I37-C36)*C40-((I37-F36)*F40))),IF(I37&gt;=I35,J35,IF(I37&lt;=F36,J39)))</f>
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="0"/>
-        <v>3.0769230769230771</v>
+        <v>1.1764705882352942</v>
       </c>
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
@@ -6794,29 +6798,29 @@
         <v>23</v>
       </c>
       <c r="C38" s="12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G38" s="25"/>
       <c r="H38" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I38" s="9">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="J38" s="11">
         <f>IF(AND(I38&gt;=C36,I38&gt;=F36),(((I38-C36)*C40-((I38-F36)*F40))),IF(I38&gt;=I36,J36,IF(I38&lt;=F36,J40)))</f>
-        <v>900</v>
+        <v>25000</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="0"/>
-        <v>6.9230769230769234</v>
+        <v>2.9411764705882355</v>
       </c>
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
@@ -6828,7 +6832,7 @@
       </c>
       <c r="C39" s="10">
         <f>C37*C38*100</f>
-        <v>760</v>
+        <v>28000</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="10" t="s">
@@ -6836,18 +6840,18 @@
       </c>
       <c r="F39" s="10">
         <f>F37*F38*100</f>
-        <v>630</v>
+        <v>19500</v>
       </c>
       <c r="G39" s="25"/>
       <c r="H39" s="10" t="s">
         <v>97</v>
       </c>
       <c r="I39" s="9">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="J39" s="11">
         <f>IF(I39&lt;=F36,IF((C39-F39)&gt;=0,F39-C39,C39-F39))</f>
-        <v>-130</v>
+        <v>-8500</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="0"/>
@@ -6863,7 +6867,7 @@
       </c>
       <c r="C40" s="10">
         <f>C38*100</f>
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="10" t="s">
@@ -6871,7 +6875,7 @@
       </c>
       <c r="F40" s="10">
         <f>F38*100</f>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G40" s="25"/>
       <c r="H40" s="10"/>
@@ -6888,7 +6892,7 @@
       </c>
       <c r="C41" s="10">
         <f>C40*C36</f>
-        <v>4000</v>
+        <v>220000</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="10" t="s">
@@ -6896,7 +6900,7 @@
       </c>
       <c r="F41" s="10">
         <f>F40*F36</f>
-        <v>1400</v>
+        <v>100000</v>
       </c>
       <c r="G41" s="25"/>
       <c r="H41" s="10"/>
@@ -6928,7 +6932,7 @@
       </c>
       <c r="C43" s="12">
         <f>C39-F39</f>
-        <v>130</v>
+        <v>8500</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>

--- a/Options.xlsx
+++ b/Options.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC14B9F0-FB5A-497B-ABB5-9B150D709794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E74085-669D-4F85-8FFA-789ADA9758A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="688" firstSheet="4" activeTab="8" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
   </bookViews>
@@ -1926,7 +1926,7 @@
   </sheetPr>
   <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -5966,7 +5966,7 @@
   <dimension ref="B2:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6696,31 +6696,31 @@
         <v>22</v>
       </c>
       <c r="C35" s="24">
-        <v>45884</v>
+        <v>46010</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="24">
-        <v>45884</v>
+        <v>46010</v>
       </c>
       <c r="G35" s="25"/>
       <c r="H35" s="10" t="str">
         <f>"Max Loss (=Leg A Strike " &amp; C36 &amp; "$)"</f>
-        <v>Max Loss (=Leg A Strike 220$)</v>
+        <v>Max Loss (=Leg A Strike 85$)</v>
       </c>
       <c r="I35" s="9">
         <f>C36</f>
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="J35" s="10">
         <f>IF(AND(I35&gt;=F36,I35&lt;=C36),-(I35-F36)*F40)</f>
-        <v>-10000</v>
+        <v>-2500</v>
       </c>
       <c r="K35" s="9">
         <f>J35/$C$43</f>
-        <v>-1.1764705882352942</v>
+        <v>-3.5714285714285716</v>
       </c>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -6731,30 +6731,30 @@
         <v>1</v>
       </c>
       <c r="C36" s="9">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="9">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G36" s="25"/>
       <c r="H36" s="10" t="s">
         <v>65</v>
       </c>
       <c r="I36" s="9">
-        <f>C36-(C37-F37)</f>
-        <v>231</v>
-      </c>
-      <c r="J36" s="11">
+        <f>C36-(((C38/F38)*C37)-F37)</f>
+        <v>83.6</v>
+      </c>
+      <c r="J36" s="11" t="b">
         <f>IF(AND(I36&gt;=C36,I36&gt;=F36),(((I36-C36)*C40-((I36-F36)*F40))),IF(I36&gt;=I35,J35,IF(I36&lt;=F36,J39)))</f>
-        <v>-4500</v>
+        <v>0</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" ref="K36:K39" si="0">J36/$C$43</f>
-        <v>-0.52941176470588236</v>
+        <v>0</v>
       </c>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
@@ -6765,29 +6765,29 @@
         <v>6</v>
       </c>
       <c r="C37" s="10">
-        <v>28</v>
+        <v>3.5</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F37" s="10">
-        <v>39</v>
+        <v>5.6</v>
       </c>
       <c r="G37" s="25"/>
       <c r="H37" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I37" s="9">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="J37" s="11">
         <f>IF(AND(I37&gt;=C36,I37&gt;=F36),(((I37-C36)*C40-((I37-F36)*F40))),IF(I37&gt;=I35,J35,IF(I37&lt;=F36,J39)))</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="0"/>
-        <v>1.1764705882352942</v>
+        <v>0</v>
       </c>
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
@@ -6812,15 +6812,15 @@
         <v>28</v>
       </c>
       <c r="I38" s="9">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="J38" s="11">
         <f>IF(AND(I38&gt;=C36,I38&gt;=F36),(((I38-C36)*C40-((I38-F36)*F40))),IF(I38&gt;=I36,J36,IF(I38&lt;=F36,J40)))</f>
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="0"/>
-        <v>2.9411764705882355</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
@@ -6832,7 +6832,7 @@
       </c>
       <c r="C39" s="10">
         <f>C37*C38*100</f>
-        <v>28000</v>
+        <v>3500</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="10" t="s">
@@ -6840,18 +6840,18 @@
       </c>
       <c r="F39" s="10">
         <f>F37*F38*100</f>
-        <v>19500</v>
+        <v>2800</v>
       </c>
       <c r="G39" s="25"/>
       <c r="H39" s="10" t="s">
         <v>97</v>
       </c>
       <c r="I39" s="9">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="J39" s="11">
         <f>IF(I39&lt;=F36,IF((C39-F39)&gt;=0,F39-C39,C39-F39))</f>
-        <v>-8500</v>
+        <v>-700</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="0"/>
@@ -6892,7 +6892,7 @@
       </c>
       <c r="C41" s="10">
         <f>C40*C36</f>
-        <v>220000</v>
+        <v>85000</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="10" t="s">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="F41" s="10">
         <f>F40*F36</f>
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="25"/>
       <c r="H41" s="10"/>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="C43" s="12">
         <f>C39-F39</f>
-        <v>8500</v>
+        <v>700</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>

--- a/Options.xlsx
+++ b/Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E74085-669D-4F85-8FFA-789ADA9758A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC25E8B1-EB64-4827-80FD-58D7CAAE1C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="688" firstSheet="4" activeTab="8" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="688" firstSheet="4" activeTab="6" xr2:uid="{17A267B1-178B-4287-81DD-6A61B8A207C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4276,8 +4276,8 @@
   </sheetPr>
   <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4898,25 +4898,25 @@
         <v>22</v>
       </c>
       <c r="C35" s="1">
-        <v>45856</v>
+        <v>46038</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="1">
-        <v>45856</v>
+        <v>46038</v>
       </c>
       <c r="H35" s="10" t="str">
         <f>"Max Loss (&lt;=Leg A Strike " &amp; C36 &amp; "$)"</f>
-        <v>Max Loss (&lt;=Leg A Strike 210$)</v>
+        <v>Max Loss (&lt;=Leg A Strike 50$)</v>
       </c>
       <c r="I35" s="9">
         <f>C36-1</f>
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="J35" s="10">
         <f>IF(I35&lt;=C36,(-C37*C40+F37*F40))</f>
-        <v>-22400</v>
+        <v>-10900</v>
       </c>
       <c r="K35" s="9">
         <f>J35/$C$43</f>
@@ -4928,21 +4928,21 @@
         <v>1</v>
       </c>
       <c r="C36" s="6">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="6">
-        <v>240</v>
+        <v>59</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>65</v>
       </c>
       <c r="I36" s="9">
         <f>C36+(C37-F37)</f>
-        <v>221.2</v>
+        <v>52.18</v>
       </c>
       <c r="J36" s="11">
         <f>(I36-$C$36-$C$37)*C40+F37*F40</f>
@@ -4958,28 +4958,28 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>19.5</v>
+        <v>2.85</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F37">
-        <v>8.3000000000000007</v>
+        <v>0.67</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I37" s="4">
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="J37" s="11">
         <f>IF(AND(I37&gt;C36,I37&lt;F36),(((I37-C36)*C40-C39+F39)),IF(I37&lt;=I35,J35,IF(I37&gt;=F36,J39)))</f>
-        <v>7600</v>
+        <v>14100</v>
       </c>
       <c r="K37" s="9">
         <f>J37/$C$43</f>
-        <v>0.3392857142857143</v>
+        <v>1.2935779816513762</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -4987,28 +4987,28 @@
         <v>23</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F38">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I38" s="4">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="J38" s="11">
         <f>IF(AND(I38&gt;C36,I38&lt;F36),(((I38-C36)*C40-C39+F39)),IF(I38&lt;=I35,J35,IF(I38&gt;=F36,J39)))</f>
-        <v>27600</v>
+        <v>29100</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="0"/>
-        <v>1.2321428571428572</v>
+        <v>2.669724770642202</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="C39" s="10">
         <f>C37*C38*100</f>
-        <v>39000</v>
+        <v>14250</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="10" t="s">
@@ -5025,23 +5025,23 @@
       </c>
       <c r="F39" s="10">
         <f>F37*F38*100</f>
-        <v>16600</v>
+        <v>3350</v>
       </c>
       <c r="H39" s="10" t="str">
         <f>"Max Profit (Leg B Strike " &amp; F36 &amp; "$)"</f>
-        <v>Max Profit (Leg B Strike 240$)</v>
+        <v>Max Profit (Leg B Strike 59$)</v>
       </c>
       <c r="I39" s="9">
         <f>F36</f>
-        <v>240</v>
+        <v>59</v>
       </c>
       <c r="J39" s="11">
         <f>(I39-C36-C37)*C38*100-(I39-F36-F37)*F38*100</f>
-        <v>37600</v>
+        <v>34100</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="0"/>
-        <v>1.6785714285714286</v>
+        <v>3.1284403669724772</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="C40" s="10">
         <f>C38*100</f>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="10" t="s">
@@ -5058,21 +5058,21 @@
       </c>
       <c r="F40" s="10">
         <f>F38*100</f>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>66</v>
       </c>
       <c r="I40" s="4">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="J40" s="11">
         <f>IF(AND(I40&gt;C36,I40&lt;F36),(((I40-C36)*C40-C39+F39)),IF(I40&lt;=I35,J35,IF(I40&gt;=F36,J39)))</f>
-        <v>37600</v>
+        <v>34100</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="0"/>
-        <v>1.6785714285714286</v>
+        <v>3.1284403669724772</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="C41" s="10">
         <f>C40*C36</f>
-        <v>420000</v>
+        <v>250000</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="10" t="s">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="F41" s="10">
         <f>F40*F36</f>
-        <v>480000</v>
+        <v>295000</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="C43" s="12">
         <f>C39-F39</f>
-        <v>22400</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -5965,7 +5965,7 @@
   </sheetPr>
   <dimension ref="B2:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
